--- a/referencia/20211001_0857_CTe.xlsx
+++ b/referencia/20211001_0857_CTe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\prj_Proparts_conexao_nfe\20210825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\prj_Proparts_conexao_nfe\referencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E43447-26A1-41E0-AD7C-3BDC5633FC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD387BD-C5F1-4E72-8CEF-3EFEA387FF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{200B433E-8E5E-4D7B-80B5-414D453413DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{200B433E-8E5E-4D7B-80B5-414D453413DA}"/>
   </bookViews>
   <sheets>
     <sheet name="sql_tblCompraNF" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14713" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14722" uniqueCount="848">
   <si>
     <t>ID_CompraNF</t>
   </si>
@@ -36034,395 +36034,399 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C3EC24-CD57-4ABE-BC23-B06A88C0EDF1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CC27"/>
+  <dimension ref="A1:CD27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="28" t="s">
+      <c r="AV1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8">
         <v>51667</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>1986416</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <v>36479</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="G2" s="9"/>
       <c r="H2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="29">
+      <c r="K2" s="29">
         <v>284</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="11">
         <v>44259</v>
       </c>
-      <c r="O2" s="17">
+      <c r="P2" s="17">
         <v>44273</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="R2" s="15">
         <v>18448</v>
       </c>
-      <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="12">
-        <v>0</v>
-      </c>
+      <c r="V2" s="9"/>
       <c r="W2" s="12">
         <v>0</v>
       </c>
@@ -36435,35 +36439,35 @@
       <c r="Z2" s="12">
         <v>0</v>
       </c>
-      <c r="AA2" s="19">
+      <c r="AA2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19">
         <v>76.7</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AC2" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AC2" s="12">
-        <v>0</v>
-      </c>
       <c r="AD2" s="12">
         <v>0</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AE2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="19">
         <v>76.7</v>
       </c>
-      <c r="AF2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="19">
+      <c r="AG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="19">
         <v>76.7</v>
       </c>
-      <c r="AH2" s="12">
-        <v>0</v>
-      </c>
       <c r="AI2" s="12">
         <v>0</v>
       </c>
-      <c r="AJ2" s="10" t="s">
-        <v>82</v>
+      <c r="AJ2" s="12">
+        <v>0</v>
       </c>
       <c r="AK2" s="10" t="s">
         <v>82</v>
@@ -36471,11 +36475,11 @@
       <c r="AL2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>82</v>
+      <c r="AM2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>0</v>
       </c>
       <c r="AO2" s="10" t="s">
         <v>82</v>
@@ -36483,24 +36487,24 @@
       <c r="AP2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AQ2" s="12">
-        <v>0</v>
+      <c r="AQ2" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="AR2" s="12">
         <v>0</v>
       </c>
-      <c r="AS2" s="10" t="s">
-        <v>82</v>
+      <c r="AS2" s="12">
+        <v>0</v>
       </c>
       <c r="AT2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" s="29">
+      <c r="AU2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="29">
         <v>6</v>
       </c>
-      <c r="AV2" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="AW2" s="10" t="s">
         <v>82</v>
       </c>
@@ -36522,8 +36526,8 @@
       <c r="BC2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BD2" s="8" t="b">
-        <v>0</v>
+      <c r="BD2" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="BE2" s="8" t="b">
         <v>0</v>
@@ -36531,15 +36535,15 @@
       <c r="BF2" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BH2" s="10" t="s">
+      <c r="BI2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="BI2" s="12">
-        <v>0</v>
-      </c>
       <c r="BJ2" s="12">
         <v>0</v>
       </c>
@@ -36555,93 +36559,96 @@
       <c r="BN2" s="12">
         <v>0</v>
       </c>
-      <c r="BO2" s="8" t="b">
+      <c r="BO2" s="12">
         <v>0</v>
       </c>
       <c r="BP2" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BQ2" s="12">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BQ2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="9"/>
       <c r="BT2" s="10" t="s">
         <v>82</v>
       </c>
       <c r="BU2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW2" s="9"/>
       <c r="BX2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BY2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="18" t="s">
+      <c r="BY2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="CA2" s="9"/>
-      <c r="CB2" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="CB2" s="9"/>
       <c r="CC2" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="CD2" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2">
         <v>51667</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2">
         <v>1986416</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="5">
         <v>44259</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2</v>
       </c>
       <c r="P3" s="5">
         <v>2</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="5">
+        <v>2</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
+      <c r="V3" s="3"/>
       <c r="W3" s="6">
         <v>0</v>
       </c>
@@ -36658,11 +36665,11 @@
         <v>0</v>
       </c>
       <c r="AB3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AC3" s="6">
-        <v>0</v>
-      </c>
       <c r="AD3" s="6">
         <v>0</v>
       </c>
@@ -36681,8 +36688,8 @@
       <c r="AI3" s="6">
         <v>0</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>82</v>
+      <c r="AJ3" s="6">
+        <v>0</v>
       </c>
       <c r="AK3" s="4" t="s">
         <v>82</v>
@@ -36690,11 +36697,11 @@
       <c r="AL3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AM3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>82</v>
+      <c r="AM3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>0</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>82</v>
@@ -36702,22 +36709,22 @@
       <c r="AP3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="6">
-        <v>0</v>
+      <c r="AQ3" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="AR3" s="6">
         <v>0</v>
       </c>
-      <c r="AS3" s="4" t="s">
-        <v>82</v>
+      <c r="AS3" s="6">
+        <v>0</v>
       </c>
       <c r="AT3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="AU3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV3" s="3"/>
       <c r="AW3" s="4" t="s">
         <v>82</v>
       </c>
@@ -36739,8 +36746,8 @@
       <c r="BC3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BD3" s="2" t="b">
-        <v>0</v>
+      <c r="BD3" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="BE3" s="2" t="b">
         <v>0</v>
@@ -36748,15 +36755,15 @@
       <c r="BF3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BG3" s="4" t="s">
-        <v>82</v>
+      <c r="BG3" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="BH3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BI3" s="6">
-        <v>0</v>
-      </c>
       <c r="BJ3" s="6">
         <v>0</v>
       </c>
@@ -36772,99 +36779,102 @@
       <c r="BN3" s="6">
         <v>0</v>
       </c>
-      <c r="BO3" s="2" t="b">
+      <c r="BO3" s="6">
         <v>0</v>
       </c>
       <c r="BP3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BQ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="4" t="s">
+      <c r="BQ3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BU3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW3" s="3"/>
       <c r="BX3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BY3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BY3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="3"/>
       <c r="CC3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="CD3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8">
         <v>51680</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>961726</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F4" s="15">
         <v>36492</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="29">
+      <c r="K4" s="29">
         <v>390</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="11">
         <v>44256</v>
       </c>
-      <c r="O4" s="17">
+      <c r="P4" s="17">
         <v>44273</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="R4" s="15">
         <v>58212</v>
       </c>
-      <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="12">
-        <v>0</v>
-      </c>
+      <c r="V4" s="9"/>
       <c r="W4" s="12">
         <v>0</v>
       </c>
@@ -36877,35 +36887,35 @@
       <c r="Z4" s="12">
         <v>0</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
         <v>128.47</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AC4" s="12">
         <v>15.42</v>
       </c>
-      <c r="AC4" s="12">
-        <v>0</v>
-      </c>
       <c r="AD4" s="12">
         <v>0</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="19">
         <v>128.47</v>
       </c>
-      <c r="AF4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="19">
         <v>128.47</v>
       </c>
-      <c r="AH4" s="12">
-        <v>0</v>
-      </c>
       <c r="AI4" s="12">
         <v>0</v>
       </c>
-      <c r="AJ4" s="10" t="s">
-        <v>82</v>
+      <c r="AJ4" s="12">
+        <v>0</v>
       </c>
       <c r="AK4" s="10" t="s">
         <v>82</v>
@@ -36913,11 +36923,11 @@
       <c r="AL4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>82</v>
+      <c r="AM4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>0</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>82</v>
@@ -36925,24 +36935,24 @@
       <c r="AP4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AQ4" s="12">
-        <v>0</v>
+      <c r="AQ4" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="AR4" s="12">
         <v>0</v>
       </c>
-      <c r="AS4" s="10" t="s">
-        <v>82</v>
+      <c r="AS4" s="12">
+        <v>0</v>
       </c>
       <c r="AT4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AU4" s="29">
+      <c r="AU4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV4" s="29">
         <v>6</v>
       </c>
-      <c r="AV4" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="AW4" s="10" t="s">
         <v>82</v>
       </c>
@@ -36964,8 +36974,8 @@
       <c r="BC4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BD4" s="8" t="b">
-        <v>0</v>
+      <c r="BD4" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="BE4" s="8" t="b">
         <v>0</v>
@@ -36973,15 +36983,15 @@
       <c r="BF4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BG4" s="16" t="s">
+      <c r="BG4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BH4" s="10" t="s">
+      <c r="BI4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BI4" s="12">
-        <v>0</v>
-      </c>
       <c r="BJ4" s="12">
         <v>0</v>
       </c>
@@ -36997,93 +37007,96 @@
       <c r="BN4" s="12">
         <v>0</v>
       </c>
-      <c r="BO4" s="8" t="b">
+      <c r="BO4" s="12">
         <v>0</v>
       </c>
       <c r="BP4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BQ4" s="12">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BQ4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="9"/>
       <c r="BT4" s="10" t="s">
         <v>82</v>
       </c>
       <c r="BU4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW4" s="9"/>
       <c r="BX4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BY4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="18" t="s">
+      <c r="BY4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="CB4" s="9"/>
       <c r="CC4" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="CD4" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2">
         <v>51680</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2">
         <v>961726</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="5">
         <v>44256</v>
-      </c>
-      <c r="O5" s="5">
-        <v>2</v>
       </c>
       <c r="P5" s="5">
         <v>2</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="5">
+        <v>2</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="6">
-        <v>0</v>
-      </c>
+      <c r="V5" s="3"/>
       <c r="W5" s="6">
         <v>0</v>
       </c>
@@ -37100,11 +37113,11 @@
         <v>0</v>
       </c>
       <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
         <v>15.42</v>
       </c>
-      <c r="AC5" s="6">
-        <v>0</v>
-      </c>
       <c r="AD5" s="6">
         <v>0</v>
       </c>
@@ -37123,8 +37136,8 @@
       <c r="AI5" s="6">
         <v>0</v>
       </c>
-      <c r="AJ5" s="4" t="s">
-        <v>82</v>
+      <c r="AJ5" s="6">
+        <v>0</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>82</v>
@@ -37132,11 +37145,11 @@
       <c r="AL5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AM5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>82</v>
+      <c r="AM5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>0</v>
       </c>
       <c r="AO5" s="4" t="s">
         <v>82</v>
@@ -37144,22 +37157,22 @@
       <c r="AP5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AQ5" s="6">
-        <v>0</v>
+      <c r="AQ5" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="AR5" s="6">
         <v>0</v>
       </c>
-      <c r="AS5" s="4" t="s">
-        <v>82</v>
+      <c r="AS5" s="6">
+        <v>0</v>
       </c>
       <c r="AT5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="AU5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV5" s="3"/>
       <c r="AW5" s="4" t="s">
         <v>82</v>
       </c>
@@ -37181,8 +37194,8 @@
       <c r="BC5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BD5" s="2" t="b">
-        <v>0</v>
+      <c r="BD5" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="BE5" s="2" t="b">
         <v>0</v>
@@ -37190,15 +37203,15 @@
       <c r="BF5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BG5" s="4" t="s">
-        <v>82</v>
+      <c r="BG5" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="BH5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BI5" s="6">
-        <v>0</v>
-      </c>
       <c r="BJ5" s="6">
         <v>0</v>
       </c>
@@ -37214,99 +37227,102 @@
       <c r="BN5" s="6">
         <v>0</v>
       </c>
-      <c r="BO5" s="2" t="b">
+      <c r="BO5" s="6">
         <v>0</v>
       </c>
       <c r="BP5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BQ5" s="6">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="4" t="s">
+      <c r="BQ5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BT5" s="4" t="s">
+      <c r="BU5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BU5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW5" s="3"/>
       <c r="BX5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BY5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BY5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="3"/>
       <c r="CC5" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="CD5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="8">
         <v>51724</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>2099844</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>36536</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="29">
+      <c r="K6" s="29">
         <v>390</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="11">
         <v>44256</v>
       </c>
-      <c r="O6" s="17">
+      <c r="P6" s="17">
         <v>44273</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="R6" s="15">
         <v>40884</v>
       </c>
-      <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="12">
-        <v>0</v>
-      </c>
+      <c r="V6" s="9"/>
       <c r="W6" s="12">
         <v>0</v>
       </c>
@@ -37319,35 +37335,35 @@
       <c r="Z6" s="12">
         <v>0</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
         <v>90.26</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AC6" s="12">
         <v>10.83</v>
       </c>
-      <c r="AC6" s="12">
-        <v>0</v>
-      </c>
       <c r="AD6" s="12">
         <v>0</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="19">
         <v>90.26</v>
       </c>
-      <c r="AF6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="19">
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="19">
         <v>90.26</v>
       </c>
-      <c r="AH6" s="12">
-        <v>0</v>
-      </c>
       <c r="AI6" s="12">
         <v>0</v>
       </c>
-      <c r="AJ6" s="10" t="s">
-        <v>82</v>
+      <c r="AJ6" s="12">
+        <v>0</v>
       </c>
       <c r="AK6" s="10" t="s">
         <v>82</v>
@@ -37355,11 +37371,11 @@
       <c r="AL6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="10" t="s">
-        <v>82</v>
+      <c r="AM6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>0</v>
       </c>
       <c r="AO6" s="10" t="s">
         <v>82</v>
@@ -37367,24 +37383,24 @@
       <c r="AP6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AQ6" s="12">
-        <v>0</v>
+      <c r="AQ6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="AR6" s="12">
         <v>0</v>
       </c>
-      <c r="AS6" s="10" t="s">
-        <v>82</v>
+      <c r="AS6" s="12">
+        <v>0</v>
       </c>
       <c r="AT6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AU6" s="29">
+      <c r="AU6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV6" s="29">
         <v>6</v>
       </c>
-      <c r="AV6" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="AW6" s="10" t="s">
         <v>82</v>
       </c>
@@ -37406,8 +37422,8 @@
       <c r="BC6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BD6" s="8" t="b">
-        <v>0</v>
+      <c r="BD6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="BE6" s="8" t="b">
         <v>0</v>
@@ -37415,15 +37431,15 @@
       <c r="BF6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BG6" s="16" t="s">
+      <c r="BG6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BH6" s="10" t="s">
+      <c r="BI6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BI6" s="12">
-        <v>0</v>
-      </c>
       <c r="BJ6" s="12">
         <v>0</v>
       </c>
@@ -37439,93 +37455,96 @@
       <c r="BN6" s="12">
         <v>0</v>
       </c>
-      <c r="BO6" s="8" t="b">
+      <c r="BO6" s="12">
         <v>0</v>
       </c>
       <c r="BP6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BQ6" s="12">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BQ6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="9"/>
       <c r="BT6" s="10" t="s">
         <v>82</v>
       </c>
       <c r="BU6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW6" s="9"/>
       <c r="BX6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BY6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="18" t="s">
+      <c r="BY6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="CB6" s="9"/>
       <c r="CC6" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="CD6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2">
         <v>51724</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="2">
         <v>2099844</v>
       </c>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="5">
         <v>44256</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2</v>
       </c>
       <c r="P7" s="5">
         <v>2</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="5">
+        <v>2</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
+      <c r="V7" s="3"/>
       <c r="W7" s="6">
         <v>0</v>
       </c>
@@ -37542,11 +37561,11 @@
         <v>0</v>
       </c>
       <c r="AB7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="6">
         <v>10.83</v>
       </c>
-      <c r="AC7" s="6">
-        <v>0</v>
-      </c>
       <c r="AD7" s="6">
         <v>0</v>
       </c>
@@ -37565,8 +37584,8 @@
       <c r="AI7" s="6">
         <v>0</v>
       </c>
-      <c r="AJ7" s="4" t="s">
-        <v>82</v>
+      <c r="AJ7" s="6">
+        <v>0</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>82</v>
@@ -37574,11 +37593,11 @@
       <c r="AL7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AM7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>82</v>
+      <c r="AM7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>0</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>82</v>
@@ -37586,22 +37605,22 @@
       <c r="AP7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AQ7" s="6">
-        <v>0</v>
+      <c r="AQ7" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="AR7" s="6">
         <v>0</v>
       </c>
-      <c r="AS7" s="4" t="s">
-        <v>82</v>
+      <c r="AS7" s="6">
+        <v>0</v>
       </c>
       <c r="AT7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="AU7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV7" s="3"/>
       <c r="AW7" s="4" t="s">
         <v>82</v>
       </c>
@@ -37623,8 +37642,8 @@
       <c r="BC7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BD7" s="2" t="b">
-        <v>0</v>
+      <c r="BD7" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="BE7" s="2" t="b">
         <v>0</v>
@@ -37632,15 +37651,15 @@
       <c r="BF7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BG7" s="4" t="s">
-        <v>82</v>
+      <c r="BG7" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="BH7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BI7" s="6">
-        <v>0</v>
-      </c>
       <c r="BJ7" s="6">
         <v>0</v>
       </c>
@@ -37656,99 +37675,102 @@
       <c r="BN7" s="6">
         <v>0</v>
       </c>
-      <c r="BO7" s="2" t="b">
+      <c r="BO7" s="6">
         <v>0</v>
       </c>
       <c r="BP7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BQ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="4" t="s">
+      <c r="BQ7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BT7" s="4" t="s">
+      <c r="BU7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BU7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW7" s="3"/>
       <c r="BX7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BY7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="3"/>
-      <c r="CB7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BY7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="3"/>
       <c r="CC7" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="CD7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="8">
         <v>51675</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>113945</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>36487</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="29">
+      <c r="K8" s="29">
         <v>390</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="11">
         <v>44256</v>
       </c>
-      <c r="O8" s="17">
+      <c r="P8" s="17">
         <v>44273</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="Q8" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="R8" s="15">
         <v>58224</v>
       </c>
-      <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
-      <c r="V8" s="12">
-        <v>0</v>
-      </c>
+      <c r="V8" s="9"/>
       <c r="W8" s="12">
         <v>0</v>
       </c>
@@ -37761,35 +37783,35 @@
       <c r="Z8" s="12">
         <v>0</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="19">
         <v>119.36</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AC8" s="12">
         <v>14.32</v>
       </c>
-      <c r="AC8" s="12">
-        <v>0</v>
-      </c>
       <c r="AD8" s="12">
         <v>0</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19">
         <v>119.36</v>
       </c>
-      <c r="AF8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="19">
+      <c r="AG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="19">
         <v>119.36</v>
       </c>
-      <c r="AH8" s="12">
-        <v>0</v>
-      </c>
       <c r="AI8" s="12">
         <v>0</v>
       </c>
-      <c r="AJ8" s="10" t="s">
-        <v>82</v>
+      <c r="AJ8" s="12">
+        <v>0</v>
       </c>
       <c r="AK8" s="10" t="s">
         <v>82</v>
@@ -37797,11 +37819,11 @@
       <c r="AL8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="10" t="s">
-        <v>82</v>
+      <c r="AM8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>0</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>82</v>
@@ -37809,24 +37831,24 @@
       <c r="AP8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AQ8" s="12">
-        <v>0</v>
+      <c r="AQ8" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="AR8" s="12">
         <v>0</v>
       </c>
-      <c r="AS8" s="10" t="s">
-        <v>82</v>
+      <c r="AS8" s="12">
+        <v>0</v>
       </c>
       <c r="AT8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AU8" s="29">
+      <c r="AU8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV8" s="29">
         <v>6</v>
       </c>
-      <c r="AV8" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="AW8" s="10" t="s">
         <v>82</v>
       </c>
@@ -37848,8 +37870,8 @@
       <c r="BC8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BD8" s="8" t="b">
-        <v>0</v>
+      <c r="BD8" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="BE8" s="8" t="b">
         <v>0</v>
@@ -37857,15 +37879,15 @@
       <c r="BF8" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BG8" s="16" t="s">
+      <c r="BG8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BH8" s="10" t="s">
+      <c r="BI8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BI8" s="12">
-        <v>0</v>
-      </c>
       <c r="BJ8" s="12">
         <v>0</v>
       </c>
@@ -37881,93 +37903,96 @@
       <c r="BN8" s="12">
         <v>0</v>
       </c>
-      <c r="BO8" s="8" t="b">
+      <c r="BO8" s="12">
         <v>0</v>
       </c>
       <c r="BP8" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="BQ8" s="12">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="9"/>
-      <c r="BS8" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BQ8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="9"/>
       <c r="BT8" s="10" t="s">
         <v>82</v>
       </c>
       <c r="BU8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BV8" s="9"/>
-      <c r="BW8" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW8" s="9"/>
       <c r="BX8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BY8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="18" t="s">
+      <c r="BY8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="CA8" s="9"/>
-      <c r="CB8" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="CB8" s="9"/>
       <c r="CC8" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:81" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="CD8" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="2">
         <v>51675</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2">
         <v>113945</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="5">
         <v>44256</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2</v>
       </c>
       <c r="P9" s="5">
         <v>2</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="5">
+        <v>2</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
+      <c r="V9" s="3"/>
       <c r="W9" s="6">
         <v>0</v>
       </c>
@@ -37984,11 +38009,11 @@
         <v>0</v>
       </c>
       <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
         <v>14.32</v>
       </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
       <c r="AD9" s="6">
         <v>0</v>
       </c>
@@ -38007,8 +38032,8 @@
       <c r="AI9" s="6">
         <v>0</v>
       </c>
-      <c r="AJ9" s="4" t="s">
-        <v>82</v>
+      <c r="AJ9" s="6">
+        <v>0</v>
       </c>
       <c r="AK9" s="4" t="s">
         <v>82</v>
@@ -38016,11 +38041,11 @@
       <c r="AL9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AM9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>82</v>
+      <c r="AM9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>0</v>
       </c>
       <c r="AO9" s="4" t="s">
         <v>82</v>
@@ -38028,22 +38053,22 @@
       <c r="AP9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AQ9" s="6">
-        <v>0</v>
+      <c r="AQ9" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="AR9" s="6">
         <v>0</v>
       </c>
-      <c r="AS9" s="4" t="s">
-        <v>82</v>
+      <c r="AS9" s="6">
+        <v>0</v>
       </c>
       <c r="AT9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="AU9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV9" s="3"/>
       <c r="AW9" s="4" t="s">
         <v>82</v>
       </c>
@@ -38065,8 +38090,8 @@
       <c r="BC9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BD9" s="2" t="b">
-        <v>0</v>
+      <c r="BD9" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="BE9" s="2" t="b">
         <v>0</v>
@@ -38074,15 +38099,15 @@
       <c r="BF9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BG9" s="4" t="s">
-        <v>82</v>
+      <c r="BG9" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="BH9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BI9" s="6">
-        <v>0</v>
-      </c>
       <c r="BJ9" s="6">
         <v>0</v>
       </c>
@@ -38098,297 +38123,300 @@
       <c r="BN9" s="6">
         <v>0</v>
       </c>
-      <c r="BO9" s="2" t="b">
+      <c r="BO9" s="6">
         <v>0</v>
       </c>
       <c r="BP9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BQ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="4" t="s">
+      <c r="BQ9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BT9" s="4" t="s">
+      <c r="BU9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BU9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV9" s="3"/>
-      <c r="BW9" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="BV9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW9" s="3"/>
       <c r="BX9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BY9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="3"/>
-      <c r="CB9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BY9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="3"/>
       <c r="CC9" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="O10" t="s">
+      <c r="CD9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" t="s">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>194</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="G17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>185</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>194</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="G18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>194</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="G19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>194</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17">
+      <c r="E20" s="17">
         <v>44273</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="G20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="27">
+      <c r="H20" s="27">
         <v>44256</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>181</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="27">
+      <c r="H21" s="27">
         <v>0.72027777777777779</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>195</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="15">
+      <c r="E22" s="15">
         <v>18448</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>194</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="2:47" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="31" t="s">
+    <row r="23" spans="3:48" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="32">
+      <c r="E23" s="32">
         <v>76.7</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="G23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="35">
+      <c r="H23" s="35">
         <v>886.5</v>
       </c>
-      <c r="AU23" s="7"/>
-    </row>
-    <row r="24" spans="2:47" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="31" t="s">
+      <c r="AV23" s="7"/>
+    </row>
+    <row r="24" spans="3:48" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="32">
+      <c r="E24" s="32">
         <v>76.7</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="G24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="35">
+      <c r="H24" s="35">
         <v>2787.33</v>
       </c>
-      <c r="AU24" s="7"/>
-    </row>
-    <row r="25" spans="2:47" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="31" t="s">
+      <c r="AV24" s="7"/>
+    </row>
+    <row r="25" spans="3:48" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="32">
+      <c r="E25" s="32">
         <v>76.7</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="G25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="35">
+      <c r="H25" s="35">
         <v>2787.33</v>
       </c>
-      <c r="AU25" s="7"/>
-    </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="AV25" s="7"/>
+    </row>
+    <row r="26" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="15">
+      <c r="E26" s="15">
         <v>6</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="G26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>194</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>194</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -67140,7 +67168,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
